--- a/Reg_Season_23_24/SQL/variable_dict.xlsx
+++ b/Reg_Season_23_24/SQL/variable_dict.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aab243d6baed32/Desktop/Lighthouse/After/NHL-Stats/Reg_Season_23_24/SQL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="110" documentId="8_{EAF92BBA-0B4B-4798-90E8-767DFD7FEAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E39230BB-12DC-4AA1-A096-4205432C9E02}"/>
+  <xr:revisionPtr revIDLastSave="152" documentId="8_{EAF92BBA-0B4B-4798-90E8-767DFD7FEAAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DF7034D-F4BD-4B18-8D0D-4B99B83271E8}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2D91F26B-6BC0-4619-A89D-46505BB59F9C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="107">
   <si>
     <t>game_id</t>
   </si>
@@ -209,10 +209,154 @@
     <t>varchar(3)</t>
   </si>
   <si>
-    <t>vaarchar(100)</t>
-  </si>
-  <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Standings</t>
+  </si>
+  <si>
+    <t>game_type_id</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>season_id</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>division</t>
+  </si>
+  <si>
+    <t>league_standing</t>
+  </si>
+  <si>
+    <t>conf_standing</t>
+  </si>
+  <si>
+    <t>div_standing</t>
+  </si>
+  <si>
+    <t>games_played</t>
+  </si>
+  <si>
+    <t>goal_diff</t>
+  </si>
+  <si>
+    <t>goal_diff_pctg</t>
+  </si>
+  <si>
+    <t>goals_against</t>
+  </si>
+  <si>
+    <t>goals_for</t>
+  </si>
+  <si>
+    <t>goals_for_pctg</t>
+  </si>
+  <si>
+    <t>losses</t>
+  </si>
+  <si>
+    <t>ot_losses</t>
+  </si>
+  <si>
+    <t>points_pctg</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>reg_wins</t>
+  </si>
+  <si>
+    <t>reg_ot_wins</t>
+  </si>
+  <si>
+    <t>reg_win_pctg</t>
+  </si>
+  <si>
+    <t>so_losses</t>
+  </si>
+  <si>
+    <t>so_wins</t>
+  </si>
+  <si>
+    <t>win_pctg</t>
+  </si>
+  <si>
+    <t>wins</t>
+  </si>
+  <si>
+    <t>home_goal_diff</t>
+  </si>
+  <si>
+    <t>home_goals_against</t>
+  </si>
+  <si>
+    <t>home_goals_for</t>
+  </si>
+  <si>
+    <t>home_losses</t>
+  </si>
+  <si>
+    <t>home_ot_losses</t>
+  </si>
+  <si>
+    <t>home_points</t>
+  </si>
+  <si>
+    <t>home_reg_wins</t>
+  </si>
+  <si>
+    <t>home_reg_ot_wins</t>
+  </si>
+  <si>
+    <t>home_wins</t>
+  </si>
+  <si>
+    <t>road_goal_diff</t>
+  </si>
+  <si>
+    <t>road_goals_against</t>
+  </si>
+  <si>
+    <t>road_goals_for</t>
+  </si>
+  <si>
+    <t>road_losses</t>
+  </si>
+  <si>
+    <t>road_ot_losses</t>
+  </si>
+  <si>
+    <t>road_points</t>
+  </si>
+  <si>
+    <t>road_reg_wins</t>
+  </si>
+  <si>
+    <t>road_reg_ot_wins</t>
+  </si>
+  <si>
+    <t>road_wins</t>
+  </si>
+  <si>
+    <t>char(3)</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>decimal(4,3)</t>
+  </si>
+  <si>
+    <t>Teams</t>
+  </si>
+  <si>
+    <t>team_id</t>
   </si>
 </sst>
 </file>
@@ -597,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3116FEB-E22D-4181-897A-8C896052CD1F}">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C183"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="C180" sqref="C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -618,7 +762,7 @@
         <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1590,7 +1734,7 @@
         <v>52</v>
       </c>
       <c r="B131" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
@@ -1615,6 +1759,376 @@
       </c>
       <c r="B134" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>61</v>
+      </c>
+      <c r="B137" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>59</v>
+      </c>
+      <c r="B138" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>60</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>62</v>
+      </c>
+      <c r="B140" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>63</v>
+      </c>
+      <c r="B141" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>64</v>
+      </c>
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>66</v>
+      </c>
+      <c r="B144" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>67</v>
+      </c>
+      <c r="B145" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>68</v>
+      </c>
+      <c r="B146" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>69</v>
+      </c>
+      <c r="B147" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>70</v>
+      </c>
+      <c r="B148" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>71</v>
+      </c>
+      <c r="B149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>72</v>
+      </c>
+      <c r="B150" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>73</v>
+      </c>
+      <c r="B151" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>74</v>
+      </c>
+      <c r="B152" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>75</v>
+      </c>
+      <c r="B153" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>76</v>
+      </c>
+      <c r="B154" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>77</v>
+      </c>
+      <c r="B155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>78</v>
+      </c>
+      <c r="B156" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>79</v>
+      </c>
+      <c r="B157" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>80</v>
+      </c>
+      <c r="B158" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>81</v>
+      </c>
+      <c r="B159" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>82</v>
+      </c>
+      <c r="B160" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>83</v>
+      </c>
+      <c r="B161" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>84</v>
+      </c>
+      <c r="B162" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>85</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>86</v>
+      </c>
+      <c r="B164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>87</v>
+      </c>
+      <c r="B165" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>88</v>
+      </c>
+      <c r="B166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>89</v>
+      </c>
+      <c r="B167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>90</v>
+      </c>
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>91</v>
+      </c>
+      <c r="B169" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>92</v>
+      </c>
+      <c r="B170" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>93</v>
+      </c>
+      <c r="B171" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>94</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>95</v>
+      </c>
+      <c r="B173" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>96</v>
+      </c>
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>97</v>
+      </c>
+      <c r="B175" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>98</v>
+      </c>
+      <c r="B176" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>99</v>
+      </c>
+      <c r="B177" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>100</v>
+      </c>
+      <c r="B178" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>101</v>
+      </c>
+      <c r="B179" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>106</v>
+      </c>
+      <c r="B182" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>60</v>
+      </c>
+      <c r="B183" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
